--- a/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="12270" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,17 @@
     <definedName name="frdNumbers">'Full Results Distances'!$D$1</definedName>
     <definedName name="frNumbers">'Full Results'!$C$1</definedName>
     <definedName name="frPlaces">'Full Results'!$B$2</definedName>
-    <definedName name="PercentileSummary">Log!$F$20</definedName>
-    <definedName name="PlacementSummary">Log!$B$20</definedName>
+    <definedName name="PercentileSummary">Log!$F$21</definedName>
+    <definedName name="PlacementSummary">Log!$B$21</definedName>
     <definedName name="RunDate">Log!$B$3</definedName>
     <definedName name="srPlaces">'Summary Results'!$A$2</definedName>
-    <definedName name="TagSummary">Log!$B$15:$D$17</definedName>
+    <definedName name="TagSummary">Log!$B$15</definedName>
     <definedName name="TeBytes">Log!$B$6</definedName>
-    <definedName name="TimeTaken">Log!$B$31</definedName>
+    <definedName name="TimeTaken">Log!$B$32</definedName>
     <definedName name="TrBytes">Log!$B$5</definedName>
     <definedName name="Version">Log!$B$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -44,7 +44,7 @@
     <author>Antman</author>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0">
+    <comment ref="D18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>FELT TOOL</t>
   </si>
@@ -163,16 +163,21 @@
   </si>
   <si>
     <t>Input data length (test)</t>
+  </si>
+  <si>
+    <t>Original Tag Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +204,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,10 +239,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -238,8 +251,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -539,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,11 +600,15 @@
       <c r="A5" t="s">
         <v>28</v>
       </c>
+      <c r="B5" s="6">
+        <v>123456789</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
+      <c r="B6" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -631,75 +651,80 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>19</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="e">
-        <f>C20/C15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20">
-        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1" t="e">
-        <f t="shared" ref="D21:D22" si="0">C21/C16</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="e">
+        <f>C21/C15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="e">
+        <f t="shared" ref="D22:D23" si="0">C22/C17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>10</v>
       </c>
-      <c r="D22" s="1" t="e">
-        <f t="shared" si="0"/>
+      <c r="D23" s="1" t="e">
+        <f>C23/C18</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>20</v>
       </c>
     </row>
@@ -718,7 +743,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +769,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="e">
-        <f>B2/Log!C15</f>
+        <f>B2/Log!C16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D2" s="3"/>
@@ -806,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
@@ -13,10 +13,10 @@
     <sheet name="Full Results Distances" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="AlgorithmName">Log!$C$9</definedName>
-    <definedName name="AlgorithmType">Log!$C$8</definedName>
-    <definedName name="FeatureDataTypes">Log!$C$11</definedName>
-    <definedName name="FeatureNames">Log!$C$12</definedName>
+    <definedName name="AlgorithmName">Log!$C$8</definedName>
+    <definedName name="AlgorithmType">Log!$C$7</definedName>
+    <definedName name="FeatureDataTypes">Log!$C$10</definedName>
+    <definedName name="FeatureNames">Log!$C$11</definedName>
     <definedName name="frClasses">'Full Results'!$A$2</definedName>
     <definedName name="frData">'Full Results'!$C$2</definedName>
     <definedName name="frdClasses">'Full Results Distances'!$A$2</definedName>
@@ -24,17 +24,17 @@
     <definedName name="frdNumbers">'Full Results Distances'!$D$1</definedName>
     <definedName name="frNumbers">'Full Results'!$C$1</definedName>
     <definedName name="frPlaces">'Full Results'!$B$2</definedName>
-    <definedName name="PercentileSummary">Log!$F$21</definedName>
-    <definedName name="PlacementSummary">Log!$B$21</definedName>
-    <definedName name="RunDate">Log!$B$3</definedName>
+    <definedName name="PercentileSummary">Log!$F$20</definedName>
+    <definedName name="PlacementSummary">Log!$B$20</definedName>
+    <definedName name="RunDate">Log!$B$2</definedName>
     <definedName name="srPlaces">'Summary Results'!$A$2</definedName>
-    <definedName name="TagSummary">Log!$B$15</definedName>
-    <definedName name="TeBytes">Log!$B$6</definedName>
-    <definedName name="TimeTaken">Log!$B$32</definedName>
-    <definedName name="TrBytes">Log!$B$5</definedName>
-    <definedName name="Version">Log!$B$4</definedName>
+    <definedName name="TagSummary">Log!$B$14</definedName>
+    <definedName name="TeBytes">Log!$B$5</definedName>
+    <definedName name="TimeTaken">Log!$B$31</definedName>
+    <definedName name="TrBytes">Log!$B$4</definedName>
+    <definedName name="Version">Log!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -44,7 +44,7 @@
     <author>Antman</author>
   </authors>
   <commentList>
-    <comment ref="D18" authorId="0">
+    <comment ref="D17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>FELT TOOL</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Detected Datatype</t>
   </si>
   <si>
-    <t>Tag Count</t>
-  </si>
-  <si>
     <t>Unique</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>FELT Version</t>
   </si>
   <si>
-    <t>Match within %</t>
-  </si>
-  <si>
     <t>Total Time taken</t>
   </si>
   <si>
@@ -165,28 +159,29 @@
     <t>Input data length (test)</t>
   </si>
   <si>
-    <t>Original Tag Count</t>
+    <t>Cummlative Place</t>
+  </si>
+  <si>
+    <t>Original Instance Count</t>
+  </si>
+  <si>
+    <t>End Instance Count</t>
+  </si>
+  <si>
+    <t>Matches &lt; x %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="72"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -212,6 +207,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -221,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -238,21 +254,215 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -555,224 +765,553 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F30" sqref="F20:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="30">
+        <v>123456789</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="e">
+        <f>C20/C14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="31">
+        <v>33</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="e">
+        <f t="shared" ref="D21" si="0">C21/C16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="31">
+        <v>55</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="e">
+        <f>C22/C17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="e">
-        <f>C21/C15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1" t="e">
-        <f t="shared" ref="D22:D23" si="0">C22/C17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1" t="e">
-        <f>C23/C18</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="3" t="e">
-        <f>B2/Log!C16</f>
+        <f>B2/Log!C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -795,10 +1334,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -806,20 +1345,20 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="e">
         <f>MATCH(A2,C2:E2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +1381,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1">
         <v>1</v>

--- a/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
@@ -24,6 +24,7 @@
     <definedName name="frdNumbers">'Full Results Distances'!$D$1</definedName>
     <definedName name="frNumbers">'Full Results'!$C$1</definedName>
     <definedName name="frPlaces">'Full Results'!$B$2</definedName>
+    <definedName name="MemUsage">Log!$B$32</definedName>
     <definedName name="PercentileSummary">Log!$F$20</definedName>
     <definedName name="PlacementSummary">Log!$B$20</definedName>
     <definedName name="RunDate">Log!$B$2</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>FELT TOOL</t>
   </si>
@@ -169,6 +170,9 @@
   </si>
   <si>
     <t>Matches &lt; x %</t>
+  </si>
+  <si>
+    <t>Memory Usage</t>
   </si>
 </sst>
 </file>
@@ -422,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -434,9 +438,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -453,16 +454,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -765,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F30" sqref="F20:F30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,57 +784,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="27">
         <v>123456789</v>
       </c>
       <c r="C4" s="10"/>
@@ -843,10 +848,10 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -874,77 +879,77 @@
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -961,13 +966,13 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -985,9 +990,9 @@
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1000,9 +1005,9 @@
       <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1015,9 +1020,9 @@
       <c r="A16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="17"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1030,9 +1035,9 @@
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1055,23 +1060,23 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="10"/>
@@ -1090,7 +1095,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="31">
+      <c r="F20" s="28">
         <v>33</v>
       </c>
       <c r="G20" s="10"/>
@@ -1110,7 +1115,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="31">
+      <c r="F21" s="28">
         <v>55</v>
       </c>
       <c r="G21" s="10"/>
@@ -1130,7 +1135,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="31"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -1143,7 +1148,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="31"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1156,7 +1161,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="31"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1169,7 +1174,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="31"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1182,7 +1187,7 @@
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="31"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -1195,7 +1200,7 @@
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="31"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -1208,7 +1213,7 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="31"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -1221,7 +1226,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="31"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -1234,7 +1239,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="31"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -1242,10 +1247,10 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="26"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -1255,6 +1260,14 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="32">
+        <v>456123.4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
@@ -35,7 +35,7 @@
     <definedName name="TrBytes">Log!$B$4</definedName>
     <definedName name="Version">Log!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -430,7 +430,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -458,6 +457,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,7 +467,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -481,6 +481,425 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Hits (count) by places</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary Results'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Summary Results'!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Summary Results'!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="60004224"/>
+        <c:axId val="60002688"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary Results'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cummlative %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Summary Results'!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Summary Results'!$D$2:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65999999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="179548544"/>
+        <c:axId val="173991808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="60004224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary Results'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Place</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60002688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60002688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary Results'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" vert="horz"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60004224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="173991808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179548544"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="179548544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173991808"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,12 +1215,12 @@
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="30"/>
@@ -813,10 +1232,10 @@
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="10"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="30"/>
@@ -828,444 +1247,446 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
-      <c r="K3" s="10"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>123456789</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="10"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="10"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="10"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="10"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="19">
+        <v>50</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9">
         <v>1</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10" t="e">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="e">
         <f>C20/C14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="28">
+      <c r="E20" s="9"/>
+      <c r="F20" s="27">
         <v>33</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9">
         <v>5</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10" t="e">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="e">
         <f t="shared" ref="D21" si="0">C21/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="28">
+      <c r="E21" s="9"/>
+      <c r="F21" s="27">
         <v>55</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9">
         <v>10</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="e">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="e">
         <f>C22/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="28">
         <v>456123.4</v>
       </c>
     </row>
@@ -1283,51 +1704,205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="e">
-        <f>B2/Log!C15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D2" s="9"/>
+      <c r="C2" s="2">
+        <f>B2/Log!$C$15</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32">
+        <f>B3/Log!$C$15</f>
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="3">
+        <f>SUM($C$3:C3)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="32">
+        <f>B4/Log!$C$15</f>
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM($C$3:C4)</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="32">
+        <f>B5/Log!$C$15</f>
+        <v>0.12</v>
+      </c>
+      <c r="D5" s="3">
+        <f>SUM($C$3:C5)</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="32">
+        <f>B6/Log!$C$15</f>
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM($C$3:C6)</f>
+        <v>0.36</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="32">
+        <f>B7/Log!$C$15</f>
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM($C$3:C7)</f>
+        <v>0.45999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="32">
+        <f>B8/Log!$C$15</f>
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM($C$3:C8)</f>
+        <v>0.53999999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="32">
+        <f>B9/Log!$C$15</f>
+        <v>0.06</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM($C$3:C9)</f>
+        <v>0.59999999999999987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="32">
+        <f>B10/Log!$C$15</f>
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3">
+        <f>SUM($C$3:C10)</f>
+        <v>0.6399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="32">
+        <f>B11/Log!$C$15</f>
+        <v>0.02</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM($C$3:C11)</f>
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="5"/>
+      <c r="C12" s="32">
+        <f>B12/Log!$C$15</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM($C$3:C12)</f>
+        <v>0.65999999999999992</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="12210"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,18 @@
     <definedName name="frdNumbers">'Full Results Distances'!$D$1</definedName>
     <definedName name="frNumbers">'Full Results'!$C$1</definedName>
     <definedName name="frPlaces">'Full Results'!$B$2</definedName>
-    <definedName name="MemUsage">Log!$B$32</definedName>
-    <definedName name="PercentileSummary">Log!$F$20</definedName>
-    <definedName name="PlacementSummary">Log!$B$20</definedName>
+    <definedName name="MemUsage">Log!$B$33</definedName>
+    <definedName name="PercentileSummary">Log!$F$21</definedName>
+    <definedName name="PlacementSummary">Log!$B$21</definedName>
     <definedName name="RunDate">Log!$B$2</definedName>
     <definedName name="srPlaces">'Summary Results'!$A$2</definedName>
-    <definedName name="TagSummary">Log!$B$14</definedName>
+    <definedName name="TagSummary">Log!$B$15</definedName>
     <definedName name="TeBytes">Log!$B$5</definedName>
-    <definedName name="TimeTaken">Log!$B$31</definedName>
+    <definedName name="TimeTaken">Log!$B$32</definedName>
     <definedName name="TrBytes">Log!$B$4</definedName>
     <definedName name="Version">Log!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
     <author>Antman</author>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0">
+    <comment ref="D18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>FELT TOOL</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Memory Usage</t>
+  </si>
+  <si>
+    <t>Transform</t>
   </si>
 </sst>
 </file>
@@ -265,17 +268,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -421,6 +413,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -432,48 +433,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -541,79 +563,88 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+          </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Summary Results'!$A$2:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="1">
+            <c:strRef>
+              <c:f>'Summary Results'!$A:$A</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Place</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Summary Results'!$B$2:$B$30</c:f>
+              <c:f>'Summary Results'!$B:$B</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="1">
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -629,8 +660,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60004224"/>
-        <c:axId val="60002688"/>
+        <c:axId val="290359168"/>
+        <c:axId val="290365440"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -653,82 +684,96 @@
             <a:ln w="15875"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="12700"/>
+            </c:spPr>
+          </c:dPt>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Summary Results'!$A$2:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="1">
+            <c:strRef>
+              <c:f>'Summary Results'!$A:$A</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Place</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Summary Results'!$D$2:$D$30</c:f>
+              <c:f>'Summary Results'!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="1">
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.26</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.36</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.45999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.53999999999999992</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.59999999999999987</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.6399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.65999999999999992</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.65999999999999992</c:v>
                 </c:pt>
               </c:numCache>
@@ -744,11 +789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179548544"/>
-        <c:axId val="173991808"/>
+        <c:axId val="290368896"/>
+        <c:axId val="290367360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60004224"/>
+        <c:axId val="290359168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,12 +818,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60002688"/>
+        <c:crossAx val="290365440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60002688"/>
+        <c:axId val="290365440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,12 +859,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60004224"/>
+        <c:crossAx val="290359168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173991808"/>
+        <c:axId val="290367360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -827,16 +872,42 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179548544"/>
+        <c:crossAx val="290368896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179548544"/>
+        <c:axId val="290368896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +917,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173991808"/>
+        <c:crossAx val="290367360"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -877,14 +949,14 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="sumResultsChart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -900,6 +972,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D1048576" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:D1048576"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Place"/>
+    <tableColumn id="2" name="Count"/>
+    <tableColumn id="3" name="Percentage" dataDxfId="1"/>
+    <tableColumn id="4" name="Cummlative %" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1189,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,490 +1288,505 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="9"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>123456789</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="9"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="9"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="9"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="9"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="19">
+      <c r="B16" s="11"/>
+      <c r="C16" s="17">
         <v>50</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="17" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7">
         <v>1</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="e">
-        <f>C20/C14</f>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="e">
+        <f>C21/C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="27">
+      <c r="E21" s="7"/>
+      <c r="F21" s="25">
         <v>33</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7">
         <v>5</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="e">
-        <f t="shared" ref="D21" si="0">C21/C16</f>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="e">
+        <f t="shared" ref="D22" si="0">C22/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="27">
+      <c r="E22" s="7"/>
+      <c r="F22" s="25">
         <v>55</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7">
         <v>10</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="e">
-        <f>C22/C17</f>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="e">
+        <f>C23/C18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B33" s="26">
         <v>456123.4</v>
       </c>
     </row>
@@ -1706,38 +1806,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2">
-        <f>B2/Log!$C$15</f>
+      <c r="C2" s="6">
+        <f>B2/Log!$C$16</f>
         <v>0</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1746,8 +1846,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="32">
-        <f>B3/Log!$C$15</f>
+      <c r="C3" s="27">
+        <f>B3/Log!$C$16</f>
         <v>0.04</v>
       </c>
       <c r="D3" s="3">
@@ -1762,8 +1862,8 @@
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" s="32">
-        <f>B4/Log!$C$15</f>
+      <c r="C4" s="27">
+        <f>B4/Log!$C$16</f>
         <v>0.1</v>
       </c>
       <c r="D4" s="3">
@@ -1778,8 +1878,8 @@
       <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5" s="32">
-        <f>B5/Log!$C$15</f>
+      <c r="C5" s="27">
+        <f>B5/Log!$C$16</f>
         <v>0.12</v>
       </c>
       <c r="D5" s="3">
@@ -1794,8 +1894,8 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="32">
-        <f>B6/Log!$C$15</f>
+      <c r="C6" s="27">
+        <f>B6/Log!$C$16</f>
         <v>0.1</v>
       </c>
       <c r="D6" s="3">
@@ -1811,8 +1911,8 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="32">
-        <f>B7/Log!$C$15</f>
+      <c r="C7" s="27">
+        <f>B7/Log!$C$16</f>
         <v>0.1</v>
       </c>
       <c r="D7" s="3">
@@ -1827,8 +1927,8 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="32">
-        <f>B8/Log!$C$15</f>
+      <c r="C8" s="27">
+        <f>B8/Log!$C$16</f>
         <v>0.08</v>
       </c>
       <c r="D8" s="3">
@@ -1843,8 +1943,8 @@
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="32">
-        <f>B9/Log!$C$15</f>
+      <c r="C9" s="27">
+        <f>B9/Log!$C$16</f>
         <v>0.06</v>
       </c>
       <c r="D9" s="3">
@@ -1859,8 +1959,8 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="32">
-        <f>B10/Log!$C$15</f>
+      <c r="C10" s="27">
+        <f>B10/Log!$C$16</f>
         <v>0.04</v>
       </c>
       <c r="D10" s="3">
@@ -1875,8 +1975,8 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="32">
-        <f>B11/Log!$C$15</f>
+      <c r="C11" s="27">
+        <f>B11/Log!$C$16</f>
         <v>0.02</v>
       </c>
       <c r="D11" s="3">
@@ -1891,8 +1991,8 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="32">
-        <f>B12/Log!$C$15</f>
+      <c r="C12" s="27">
+        <f>B12/Log!$C$16</f>
         <v>0</v>
       </c>
       <c r="D12" s="3">
@@ -1903,6 +2003,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,11 @@
     <sheet name="Full Results Distances" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="AlgorithmDetails">Log!$C$9</definedName>
     <definedName name="AlgorithmName">Log!$C$8</definedName>
     <definedName name="AlgorithmType">Log!$C$7</definedName>
-    <definedName name="FeatureDataTypes">Log!$C$10</definedName>
-    <definedName name="FeatureNames">Log!$C$11</definedName>
+    <definedName name="FeatureDataTypes">Log!$C$11</definedName>
+    <definedName name="FeatureNames">Log!$C$12</definedName>
     <definedName name="frClasses">'Full Results'!$A$2</definedName>
     <definedName name="frData">'Full Results'!$C$2</definedName>
     <definedName name="frdClasses">'Full Results Distances'!$A$2</definedName>
@@ -24,14 +25,15 @@
     <definedName name="frdNumbers">'Full Results Distances'!$D$1</definedName>
     <definedName name="frNumbers">'Full Results'!$C$1</definedName>
     <definedName name="frPlaces">'Full Results'!$B$2</definedName>
-    <definedName name="MemUsage">Log!$B$33</definedName>
-    <definedName name="PercentileSummary">Log!$F$21</definedName>
-    <definedName name="PlacementSummary">Log!$B$21</definedName>
+    <definedName name="MemUsage">Log!$B$34</definedName>
+    <definedName name="PercentileSummary">Log!$F$22</definedName>
+    <definedName name="PlacementSummary">Log!$B$22</definedName>
     <definedName name="RunDate">Log!$B$2</definedName>
     <definedName name="srPlaces">'Summary Results'!$A$2</definedName>
-    <definedName name="TagSummary">Log!$B$15</definedName>
+    <definedName name="TagSummary">Log!$B$16</definedName>
     <definedName name="TeBytes">Log!$B$5</definedName>
-    <definedName name="TimeTaken">Log!$B$32</definedName>
+    <definedName name="TestEndInstanceCount">Log!$C$17</definedName>
+    <definedName name="TimeTaken">Log!$B$33</definedName>
     <definedName name="TrBytes">Log!$B$4</definedName>
     <definedName name="Version">Log!$B$3</definedName>
   </definedNames>
@@ -45,7 +47,7 @@
     <author>Antman</author>
   </authors>
   <commentList>
-    <comment ref="D18" authorId="0">
+    <comment ref="D19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -458,6 +460,8 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,8 +471,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -483,16 +485,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <top style="thin">
           <color indexed="64"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="medium">
           <color indexed="64"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -660,8 +662,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="290359168"/>
-        <c:axId val="290365440"/>
+        <c:axId val="250882304"/>
+        <c:axId val="250899840"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -688,9 +690,6 @@
           </c:marker>
           <c:dPt>
             <c:idx val="6"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln w="12700"/>
@@ -789,11 +788,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="290368896"/>
-        <c:axId val="290367360"/>
+        <c:axId val="289975680"/>
+        <c:axId val="289974144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="290359168"/>
+        <c:axId val="250882304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,12 +817,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290365440"/>
+        <c:crossAx val="250899840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="290365440"/>
+        <c:axId val="250899840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,12 +858,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290359168"/>
+        <c:crossAx val="250882304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="290367360"/>
+        <c:axId val="289974144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -900,14 +899,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290368896"/>
+        <c:crossAx val="289975680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="290368896"/>
+        <c:axId val="289975680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290367360"/>
+        <c:crossAx val="289974144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -975,7 +974,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D1048576" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D1048576" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:D1048576"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Place"/>
@@ -1274,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,18 +1287,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -1308,30 +1307,30 @@
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1424,13 +1423,9 @@
       <c r="J9" s="23"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>6</v>
-      </c>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -1442,9 +1437,11 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="13" t="s">
-        <v>4</v>
+      <c r="A11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -1456,10 +1453,10 @@
       <c r="J11" s="23"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -1471,32 +1468,26 @@
       <c r="J12" s="23"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="B13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1506,12 +1497,18 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1520,15 +1517,13 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="17">
-        <v>50</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1537,12 +1532,14 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="17">
+        <v>50</v>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1554,11 +1551,11 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1568,10 +1565,12 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1581,45 +1580,38 @@
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="e">
-        <f>C21/C15</f>
-        <v>#DIV/0!</v>
+      <c r="A21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="25">
-        <v>33</v>
-      </c>
-      <c r="G21" s="7"/>
+      <c r="F21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1628,16 +1620,16 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="7" t="e">
-        <f t="shared" ref="D22" si="0">C22/C17</f>
-        <v>#DIV/0!</v>
+      <c r="D22" s="7">
+        <f>C22/TestEndInstanceCount</f>
+        <v>0</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="25">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -1648,15 +1640,17 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="e">
-        <f>C23/C18</f>
+        <f t="shared" ref="D23" si="0">C23/C18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="25">
+        <v>55</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -1665,9 +1659,14 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="7">
+        <v>10</v>
+      </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7" t="e">
+        <f>C24/C19</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="25"/>
       <c r="G24" s="7"/>
@@ -1754,7 +1753,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1768,25 +1767,38 @@
       <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="22"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="25"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B34" s="26">
         <v>456123.4</v>
       </c>
     </row>
@@ -1806,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,16 +1829,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1834,7 +1846,7 @@
       <c r="A2" s="5"/>
       <c r="B2" s="2"/>
       <c r="C2" s="6">
-        <f>B2/Log!$C$16</f>
+        <f>B2/Log!$C$17</f>
         <v>0</v>
       </c>
       <c r="D2" s="6"/>
@@ -1847,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="27">
-        <f>B3/Log!$C$16</f>
+        <f>B3/Log!$C$17</f>
         <v>0.04</v>
       </c>
       <c r="D3" s="3">
@@ -1863,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="27">
-        <f>B4/Log!$C$16</f>
+        <f>B4/Log!$C$17</f>
         <v>0.1</v>
       </c>
       <c r="D4" s="3">
@@ -1879,7 +1891,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="27">
-        <f>B5/Log!$C$16</f>
+        <f>B5/Log!$C$17</f>
         <v>0.12</v>
       </c>
       <c r="D5" s="3">
@@ -1895,7 +1907,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="27">
-        <f>B6/Log!$C$16</f>
+        <f>B6/Log!$C$17</f>
         <v>0.1</v>
       </c>
       <c r="D6" s="3">
@@ -1912,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="27">
-        <f>B7/Log!$C$16</f>
+        <f>B7/Log!$C$17</f>
         <v>0.1</v>
       </c>
       <c r="D7" s="3">
@@ -1928,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="27">
-        <f>B8/Log!$C$16</f>
+        <f>B8/Log!$C$17</f>
         <v>0.08</v>
       </c>
       <c r="D8" s="3">
@@ -1944,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="27">
-        <f>B9/Log!$C$16</f>
+        <f>B9/Log!$C$17</f>
         <v>0.06</v>
       </c>
       <c r="D9" s="3">
@@ -1960,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="27">
-        <f>B10/Log!$C$16</f>
+        <f>B10/Log!$C$17</f>
         <v>0.04</v>
       </c>
       <c r="D10" s="3">
@@ -1976,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="27">
-        <f>B11/Log!$C$16</f>
+        <f>B11/Log!$C$17</f>
         <v>0.02</v>
       </c>
       <c r="D11" s="3">
@@ -1992,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="27">
-        <f>B12/Log!$C$16</f>
+        <f>B12/Log!$C$17</f>
         <v>0</v>
       </c>
       <c r="D12" s="3">

--- a/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary Results" sheetId="3" r:id="rId2"/>
-    <sheet name="Full Results" sheetId="2" r:id="rId3"/>
-    <sheet name="Full Results Distances" sheetId="5" r:id="rId4"/>
+    <sheet name="SummaryChart" sheetId="6" r:id="rId2"/>
+    <sheet name="Summary Results" sheetId="3" r:id="rId3"/>
+    <sheet name="Full Results" sheetId="2" r:id="rId4"/>
+    <sheet name="Full Results Distances" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="AlgorithmDetails">Log!$C$9</definedName>
@@ -25,7 +26,7 @@
     <definedName name="frdNumbers">'Full Results Distances'!$D$1</definedName>
     <definedName name="frNumbers">'Full Results'!$C$1</definedName>
     <definedName name="frPlaces">'Full Results'!$B$2</definedName>
-    <definedName name="MemUsage">Log!$B$34</definedName>
+    <definedName name="MemUsage">Log!$F$5</definedName>
     <definedName name="PercentileSummary">Log!$F$22</definedName>
     <definedName name="PlacementSummary">Log!$B$22</definedName>
     <definedName name="RunDate">Log!$B$2</definedName>
@@ -33,11 +34,11 @@
     <definedName name="TagSummary">Log!$B$16</definedName>
     <definedName name="TeBytes">Log!$B$5</definedName>
     <definedName name="TestEndInstanceCount">Log!$C$17</definedName>
-    <definedName name="TimeTaken">Log!$B$33</definedName>
+    <definedName name="TimeTaken">Log!$F$4</definedName>
     <definedName name="TrBytes">Log!$B$4</definedName>
     <definedName name="Version">Log!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>FELT TOOL</t>
   </si>
@@ -178,6 +179,9 @@
   </si>
   <si>
     <t>Transform</t>
+  </si>
+  <si>
+    <t>Configuration</t>
   </si>
 </sst>
 </file>
@@ -246,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -258,17 +262,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -312,28 +305,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -380,13 +351,162 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -397,30 +517,19 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,47 +538,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -537,7 +703,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -662,8 +827,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="250882304"/>
-        <c:axId val="250899840"/>
+        <c:axId val="197891200"/>
+        <c:axId val="197893120"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -788,11 +953,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="289975680"/>
-        <c:axId val="289974144"/>
+        <c:axId val="199158400"/>
+        <c:axId val="199156864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="250882304"/>
+        <c:axId val="197891200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,19 +975,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250899840"/>
+        <c:crossAx val="197893120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="250899840"/>
+        <c:axId val="197893120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +1005,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
@@ -858,12 +1021,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250882304"/>
+        <c:crossAx val="197891200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="289974144"/>
+        <c:axId val="199156864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -899,14 +1062,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289975680"/>
+        <c:crossAx val="199158400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="289975680"/>
+        <c:axId val="199158400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,47 +1079,48 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289974144"/>
+        <c:crossAx val="199156864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LFELT Report by Anthony Truskinger&amp;C&amp;F&amp;R&amp;A</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9255973" cy="6056737"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="sumResultsChart"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -969,7 +1133,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1273,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,208 +1450,216 @@
     <col min="3" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="26">
         <v>123456789</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="D5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="44">
+        <v>456123.4</v>
+      </c>
+      <c r="G5" s="45"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+    <row r="6" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="13" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="13" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="13" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1497,13 +1669,13 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1518,12 +1690,12 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1533,14 +1705,14 @@
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="17">
+      <c r="B17" s="37"/>
+      <c r="C17" s="38">
         <v>50</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1550,12 +1722,12 @@
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1568,9 +1740,9 @@
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1579,37 +1751,37 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+    <row r="20" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="7"/>
@@ -1628,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="25">
+      <c r="F22" s="16">
         <v>33</v>
       </c>
       <c r="G22" s="7"/>
@@ -1648,7 +1820,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="25">
+      <c r="F23" s="16">
         <v>55</v>
       </c>
       <c r="G23" s="7"/>
@@ -1668,7 +1840,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -1681,7 +1853,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -1694,7 +1866,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -1707,7 +1879,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -1720,7 +1892,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -1733,7 +1905,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -1746,7 +1918,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="25"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -1759,31 +1931,27 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="25"/>
+      <c r="F32" s="16"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="22"/>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1794,22 +1962,19 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="26">
-        <v>456123.4</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LFELT Report by Anthony Truskinger&amp;C&amp;F&amp;R&amp;A</oddHeader>
+  </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1819,7 +1984,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,16 +1994,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1858,7 +2023,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="17">
         <f>B3/Log!$C$17</f>
         <v>0.04</v>
       </c>
@@ -1874,7 +2039,7 @@
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="17">
         <f>B4/Log!$C$17</f>
         <v>0.1</v>
       </c>
@@ -1890,7 +2055,7 @@
       <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="17">
         <f>B5/Log!$C$17</f>
         <v>0.12</v>
       </c>
@@ -1906,7 +2071,7 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="17">
         <f>B6/Log!$C$17</f>
         <v>0.1</v>
       </c>
@@ -1923,7 +2088,7 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="17">
         <f>B7/Log!$C$17</f>
         <v>0.1</v>
       </c>
@@ -1939,7 +2104,7 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="17">
         <f>B8/Log!$C$17</f>
         <v>0.08</v>
       </c>
@@ -1955,7 +2120,7 @@
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="17">
         <f>B9/Log!$C$17</f>
         <v>0.06</v>
       </c>
@@ -1971,7 +2136,7 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="17">
         <f>B10/Log!$C$17</f>
         <v>0.04</v>
       </c>
@@ -1987,7 +2152,7 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="17">
         <f>B11/Log!$C$17</f>
         <v>0.02</v>
       </c>
@@ -2003,7 +2168,7 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="17">
         <f>B12/Log!$C$17</f>
         <v>0</v>
       </c>
@@ -2014,7 +2179,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
@@ -2,21 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="12210"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
     <sheet name="SummaryChart" sheetId="6" r:id="rId2"/>
     <sheet name="Summary Results" sheetId="3" r:id="rId3"/>
-    <sheet name="Full Results" sheetId="2" r:id="rId4"/>
-    <sheet name="Full Results Distances" sheetId="5" r:id="rId5"/>
+    <sheet name="RocChart" sheetId="8" r:id="rId4"/>
+    <sheet name="ROCData" sheetId="7" r:id="rId5"/>
+    <sheet name="Full Results" sheetId="2" r:id="rId6"/>
+    <sheet name="Full Results Distances" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="AlgorithmDetails">Log!$C$9</definedName>
     <definedName name="AlgorithmName">Log!$C$8</definedName>
     <definedName name="AlgorithmType">Log!$C$7</definedName>
+    <definedName name="ConfusionReport">Log!$A$37</definedName>
     <definedName name="FeatureDataTypes">Log!$C$11</definedName>
     <definedName name="FeatureNames">Log!$C$12</definedName>
     <definedName name="frClasses">'Full Results'!$A$2</definedName>
@@ -27,8 +30,12 @@
     <definedName name="frNumbers">'Full Results'!$C$1</definedName>
     <definedName name="frPlaces">'Full Results'!$B$2</definedName>
     <definedName name="MemUsage">Log!$F$5</definedName>
+    <definedName name="Negatives">Log!$H$17</definedName>
     <definedName name="PercentileSummary">Log!$F$22</definedName>
     <definedName name="PlacementSummary">Log!$B$22</definedName>
+    <definedName name="Positives">Log!$H$16</definedName>
+    <definedName name="RocCurveData">ROCData!$H$2</definedName>
+    <definedName name="RocSummary">ROCData!$A$2</definedName>
     <definedName name="RunDate">Log!$B$2</definedName>
     <definedName name="srPlaces">'Summary Results'!$A$2</definedName>
     <definedName name="TagSummary">Log!$B$16</definedName>
@@ -36,9 +43,12 @@
     <definedName name="TestEndInstanceCount">Log!$C$17</definedName>
     <definedName name="TimeTaken">Log!$F$4</definedName>
     <definedName name="TrBytes">Log!$B$4</definedName>
+    <definedName name="TrueNegatives">Log!$H$17</definedName>
+    <definedName name="TruePositives">Log!$H$16</definedName>
     <definedName name="Version">Log!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -77,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>FELT TOOL</t>
   </si>
@@ -127,9 +137,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>FELT Version</t>
   </si>
   <si>
@@ -182,6 +189,114 @@
   </si>
   <si>
     <t>Configuration</t>
+  </si>
+  <si>
+    <t>True Positives</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Test (total)</t>
+  </si>
+  <si>
+    <t>Correct total?</t>
+  </si>
+  <si>
+    <t>Postives</t>
+  </si>
+  <si>
+    <t>Negatives</t>
+  </si>
+  <si>
+    <t>Roc Area</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Total Positives</t>
+  </si>
+  <si>
+    <t>Total Negatives</t>
+  </si>
+  <si>
+    <t>Total Observations</t>
+  </si>
+  <si>
+    <t>Roc Curve Data</t>
+  </si>
+  <si>
+    <t>Cutoff</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ActualPositives</t>
+  </si>
+  <si>
+    <t>ActualNegatives</t>
+  </si>
+  <si>
+    <t>PredictedPositives</t>
+  </si>
+  <si>
+    <t>PredictedNegatives</t>
+  </si>
+  <si>
+    <t>TruePositives</t>
+  </si>
+  <si>
+    <t>TrueNegatives</t>
+  </si>
+  <si>
+    <t>FalsePositives</t>
+  </si>
+  <si>
+    <t>FalseNegatives</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>PositivePredictiveValue</t>
+  </si>
+  <si>
+    <t>NegativePredictiveValue</t>
+  </si>
+  <si>
+    <t>FalsePositiveRate</t>
+  </si>
+  <si>
+    <t>FalseDiscoveryRate</t>
+  </si>
+  <si>
+    <t>MatthewsCorrelationCoefficient</t>
+  </si>
+  <si>
+    <t>OddsRatio</t>
+  </si>
+  <si>
+    <t>Kappa</t>
+  </si>
+  <si>
+    <t>OverallDiagnosticPower</t>
+  </si>
+  <si>
+    <t>NormalizedMutualInformation</t>
+  </si>
+  <si>
+    <t>Random Roc</t>
+  </si>
+  <si>
+    <t>Roc Chart Ratio</t>
   </si>
 </sst>
 </file>
@@ -601,23 +716,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -637,6 +736,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -827,8 +942,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197891200"/>
-        <c:axId val="197893120"/>
+        <c:axId val="224482432"/>
+        <c:axId val="224484352"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -953,11 +1068,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199158400"/>
-        <c:axId val="199156864"/>
+        <c:axId val="224496256"/>
+        <c:axId val="224494720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197891200"/>
+        <c:axId val="224482432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,12 +1096,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197893120"/>
+        <c:crossAx val="224484352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197893120"/>
+        <c:axId val="224484352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,12 +1136,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197891200"/>
+        <c:crossAx val="224482432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199156864"/>
+        <c:axId val="224494720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1062,14 +1177,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199158400"/>
+        <c:crossAx val="224496256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199158400"/>
+        <c:axId val="224496256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199156864"/>
+        <c:crossAx val="224494720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1095,9 +1210,322 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>ROC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Curve</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9002974214264509E-2"/>
+          <c:y val="8.383488882655532E-2"/>
+          <c:w val="0.77094259655712027"/>
+          <c:h val="0.85716535181466702"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ROCData!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Roc Chart Ratio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="28575">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>ROCData!$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>ROCData!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ROCData!$X$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ROCData!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random Roc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ROCData!$A$5:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ROCData!$B$5:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="267877760"/>
+        <c:axId val="267888128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="267877760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="-0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr anchor="t" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>(1 - Specivity)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="267888128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="267888128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="-0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Sensitvity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="267877760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="Chart2"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
@@ -1110,11 +1538,49 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Chart4"/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9255973" cy="6056737"/>
+    <xdr:ext cx="9285057" cy="6085821"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9299599" cy="6071279"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1145,6 +1611,38 @@
     <tableColumn id="2" name="Count"/>
     <tableColumn id="3" name="Percentage" dataDxfId="1"/>
     <tableColumn id="4" name="Cummlative %" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="RocTable" displayName="RocTable" ref="H1:AD1048576" totalsRowShown="0">
+  <autoFilter ref="H1:AD1048576"/>
+  <tableColumns count="23">
+    <tableColumn id="1" name="Cutoff"/>
+    <tableColumn id="2" name="Observations"/>
+    <tableColumn id="3" name="ActualPositives"/>
+    <tableColumn id="4" name="ActualNegatives"/>
+    <tableColumn id="5" name="PredictedPositives"/>
+    <tableColumn id="6" name="PredictedNegatives"/>
+    <tableColumn id="7" name="TruePositives"/>
+    <tableColumn id="8" name="TrueNegatives"/>
+    <tableColumn id="9" name="FalsePositives"/>
+    <tableColumn id="10" name="FalseNegatives"/>
+    <tableColumn id="11" name="Sensitivity"/>
+    <tableColumn id="12" name="Specificity"/>
+    <tableColumn id="13" name="Efficiency"/>
+    <tableColumn id="14" name="Accuracy"/>
+    <tableColumn id="15" name="PositivePredictiveValue"/>
+    <tableColumn id="16" name="NegativePredictiveValue"/>
+    <tableColumn id="17" name="FalsePositiveRate"/>
+    <tableColumn id="18" name="FalseDiscoveryRate"/>
+    <tableColumn id="19" name="MatthewsCorrelationCoefficient"/>
+    <tableColumn id="20" name="OddsRatio"/>
+    <tableColumn id="21" name="Kappa"/>
+    <tableColumn id="22" name="OverallDiagnosticPower"/>
+    <tableColumn id="23" name="NormalizedMutualInformation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1437,10 +1935,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,18 +1950,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -1471,46 +1970,46 @@
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+        <v>16</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="26">
         <v>123456789</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1518,18 +2017,18 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="7"/>
       <c r="D5" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="25"/>
-      <c r="F5" s="44">
+      <c r="F5" s="54">
         <v>456123.4</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1538,21 +2037,21 @@
     <row r="6" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
-      <c r="C6" s="46"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="28"/>
-      <c r="E6" s="46"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="41" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="32"/>
@@ -1582,37 +2081,37 @@
     </row>
     <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
+      <c r="B9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="32"/>
@@ -1643,23 +2142,23 @@
     <row r="13" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
+        <v>32</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1684,29 +2183,35 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="35"/>
       <c r="D16" s="36"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="7">
+        <f>TestEndInstanceCount</f>
+        <v>50</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="38">
@@ -1714,9 +2219,13 @@
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="7">
+        <f>C19</f>
+        <v>0</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1729,9 +2238,13 @@
       <c r="C18" s="38"/>
       <c r="D18" s="25"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="7" t="b">
+        <f>TestEndInstanceCount=(H16+H17)</f>
+        <v>1</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1753,13 +2266,13 @@
     </row>
     <row r="20" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1769,17 +2282,17 @@
         <v>12</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>15</v>
@@ -1796,7 +2309,7 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7">
-        <f>C22/TestEndInstanceCount</f>
+        <f>C22/Positives</f>
         <v>0</v>
       </c>
       <c r="E22" s="7"/>
@@ -1816,7 +2329,7 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="e">
-        <f t="shared" ref="D23" si="0">C23/C18</f>
+        <f>C23/C18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="7"/>
@@ -1951,7 +2464,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1961,6 +2474,114 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1981,6 +2602,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2001,10 +2623,10 @@
         <v>15</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,6 +2810,178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:AD8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="25.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="32" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="24.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.42578125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2202,7 +2996,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -2213,20 +3007,20 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="e">
         <f>MATCH(A2,C2:E2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2234,8 +3028,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2249,7 +3044,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1">
         <v>1</v>

--- a/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
@@ -35,6 +35,7 @@
     <definedName name="PlacementSummary">Log!$B$22</definedName>
     <definedName name="Positives">Log!$H$16</definedName>
     <definedName name="RocCurveData">ROCData!$H$2</definedName>
+    <definedName name="RocScore">Log!$B$34</definedName>
     <definedName name="RocSummary">ROCData!$A$2</definedName>
     <definedName name="RunDate">Log!$B$2</definedName>
     <definedName name="srPlaces">'Summary Results'!$A$2</definedName>
@@ -48,7 +49,6 @@
     <definedName name="Version">Log!$B$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>FELT TOOL</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>Roc Chart Ratio</t>
+  </si>
+  <si>
+    <t>ROC Score</t>
   </si>
 </sst>
 </file>
@@ -942,8 +945,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224482432"/>
-        <c:axId val="224484352"/>
+        <c:axId val="71952640"/>
+        <c:axId val="74129792"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1068,11 +1071,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224496256"/>
-        <c:axId val="224494720"/>
+        <c:axId val="74149888"/>
+        <c:axId val="74131712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="224482432"/>
+        <c:axId val="71952640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,12 +1099,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224484352"/>
+        <c:crossAx val="74129792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224484352"/>
+        <c:axId val="74129792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,12 +1139,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224482432"/>
+        <c:crossAx val="71952640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224494720"/>
+        <c:axId val="74131712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1177,14 +1180,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224496256"/>
+        <c:crossAx val="74149888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224496256"/>
+        <c:axId val="74149888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224494720"/>
+        <c:crossAx val="74131712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1415,11 +1418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267877760"/>
-        <c:axId val="267888128"/>
+        <c:axId val="186954496"/>
+        <c:axId val="186956416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267877760"/>
+        <c:axId val="186954496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1459,13 +1462,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267888128"/>
+        <c:crossAx val="186956416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267888128"/>
+        <c:axId val="186956416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1506,7 +1509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267877760"/>
+        <c:crossAx val="186954496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1939,7 +1942,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,6 +2477,15 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="7">
+        <f>RocSummary</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>

--- a/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="12090"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,10 @@
     <definedName name="PlacementSummary">Log!$B$22</definedName>
     <definedName name="Positives">Log!$H$16</definedName>
     <definedName name="RocCurveData">ROCData!$H$2</definedName>
+    <definedName name="RocFalsePositiveRate">RocTable[FalsePositiveRate]</definedName>
+    <definedName name="RocPlaces">ROCData!$C$8</definedName>
     <definedName name="RocScore">Log!$B$34</definedName>
+    <definedName name="RocSensitivity">RocTable[Sensitivity]</definedName>
     <definedName name="RocSummary">ROCData!$A$2</definedName>
     <definedName name="RunDate">Log!$B$2</definedName>
     <definedName name="srPlaces">'Summary Results'!$A$2</definedName>
@@ -48,7 +51,7 @@
     <definedName name="TruePositives">Log!$H$16</definedName>
     <definedName name="Version">Log!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -87,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>FELT TOOL</t>
   </si>
@@ -300,6 +303,9 @@
   </si>
   <si>
     <t>ROC Score</t>
+  </si>
+  <si>
+    <t>Places</t>
   </si>
 </sst>
 </file>
@@ -945,8 +951,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71952640"/>
-        <c:axId val="74129792"/>
+        <c:axId val="213122432"/>
+        <c:axId val="213387136"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1071,11 +1077,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74149888"/>
-        <c:axId val="74131712"/>
+        <c:axId val="213653376"/>
+        <c:axId val="213651840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71952640"/>
+        <c:axId val="213122432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,12 +1105,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74129792"/>
+        <c:crossAx val="213387136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74129792"/>
+        <c:axId val="213387136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,12 +1145,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71952640"/>
+        <c:crossAx val="213122432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74131712"/>
+        <c:axId val="213651840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1180,14 +1186,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74149888"/>
+        <c:crossAx val="213653376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74149888"/>
+        <c:axId val="213653376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74131712"/>
+        <c:crossAx val="213651840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1229,26 +1235,28 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>ROC</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> Curve</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU"/>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>ROCData!$A$9</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>ROC Chart (by 5 places)</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1330,24 +1338,31 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>ROCData!$R$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+            <c:numRef>
+              <c:f>[0]!RocSensitivity</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048575"/>
                 <c:pt idx="0">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ROCData!$X$1</c:f>
+              <c:f>[0]!RocFalsePositiveRate</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="1048575"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,11 +1433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="186954496"/>
-        <c:axId val="186956416"/>
+        <c:axId val="407733376"/>
+        <c:axId val="407735296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="186954496"/>
+        <c:axId val="407733376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1452,23 +1467,25 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>(1 - Specivity)</a:t>
+                  <a:t>(1 - Specifity)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186956416"/>
+        <c:crossAx val="407735296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="186956416"/>
+        <c:axId val="407735296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1503,13 +1520,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186954496"/>
+        <c:crossAx val="407733376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1517,6 +1535,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1545,7 +1564,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart4"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1583,7 +1602,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9299599" cy="6071279"/>
+    <xdr:ext cx="9286875" cy="6051176"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1941,7 +1960,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -2823,10 +2842,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,6 +2971,34 @@
         <v>67</v>
       </c>
     </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="P2" s="1">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="P3" s="1">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>68</v>
@@ -2977,10 +3024,22 @@
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f>"ROC Chart (by "&amp;C8&amp;" places)"</f>
+        <v>ROC Chart (by 5 places)</v>
       </c>
     </row>
   </sheetData>

--- a/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="12090" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>FELT TOOL</t>
   </si>
@@ -827,6 +827,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -951,8 +952,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213122432"/>
-        <c:axId val="213387136"/>
+        <c:axId val="301130496"/>
+        <c:axId val="301132800"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1077,11 +1078,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213653376"/>
-        <c:axId val="213651840"/>
+        <c:axId val="301231104"/>
+        <c:axId val="301229184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213122432"/>
+        <c:axId val="301130496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,18 +1100,19 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213387136"/>
+        <c:crossAx val="301132800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213387136"/>
+        <c:axId val="301132800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,6 +1131,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
@@ -1145,12 +1148,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213122432"/>
+        <c:crossAx val="301130496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213651840"/>
+        <c:axId val="301229184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1186,14 +1189,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213653376"/>
+        <c:crossAx val="301231104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213653376"/>
+        <c:axId val="301231104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,13 +1206,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213651840"/>
+        <c:crossAx val="301229184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1433,11 +1437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="407733376"/>
-        <c:axId val="407735296"/>
+        <c:axId val="354612736"/>
+        <c:axId val="354614656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="407733376"/>
+        <c:axId val="354612736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1479,13 +1483,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="407735296"/>
+        <c:crossAx val="354614656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="407735296"/>
+        <c:axId val="354614656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1527,7 +1531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="407733376"/>
+        <c:crossAx val="354612736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1549,7 +1553,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart2"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1564,7 +1568,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1575,7 +1579,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9285057" cy="6085821"/>
+    <xdr:ext cx="9258860" cy="6058180"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1602,7 +1606,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9286875" cy="6051176"/>
+    <xdr:ext cx="9285057" cy="6042195"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1626,7 +1630,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D1048576" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SumResultsTable" displayName="SumResultsTable" ref="A1:D1048576" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:D1048576"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Place"/>
@@ -1961,7 +1965,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,9 +2314,11 @@
         <v>34</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
         <v>30</v>
       </c>
@@ -2334,7 +2340,10 @@
         <f>C22/Positives</f>
         <v>0</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="13">
+        <f>C22/(Positives+Negatives)</f>
+        <v>0</v>
+      </c>
       <c r="F22" s="16">
         <v>33</v>
       </c>
@@ -2354,7 +2363,7 @@
         <f>C23/C18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="16">
         <v>55</v>
       </c>
@@ -2374,7 +2383,7 @@
         <f>C24/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="16"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2387,7 +2396,7 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="16"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2400,7 +2409,7 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="16"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2636,8 +2645,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="12090" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,9 @@
     <definedName name="Positives">Log!$H$16</definedName>
     <definedName name="RocCurveData">ROCData!$H$2</definedName>
     <definedName name="RocFalsePositiveRate">RocTable[FalsePositiveRate]</definedName>
+    <definedName name="RocNegatives">ROCData!$D$2</definedName>
     <definedName name="RocPlaces">ROCData!$C$8</definedName>
+    <definedName name="RocPositives">ROCData!$C$2</definedName>
     <definedName name="RocScore">Log!$B$34</definedName>
     <definedName name="RocSensitivity">RocTable[Sensitivity]</definedName>
     <definedName name="RocSummary">ROCData!$A$2</definedName>
@@ -766,7 +768,14 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -789,6 +798,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF41FF21"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -827,7 +841,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -952,8 +965,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301130496"/>
-        <c:axId val="301132800"/>
+        <c:axId val="269367552"/>
+        <c:axId val="269369728"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1078,11 +1091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301231104"/>
-        <c:axId val="301229184"/>
+        <c:axId val="269381632"/>
+        <c:axId val="269371648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301130496"/>
+        <c:axId val="269367552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,19 +1113,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301132800"/>
+        <c:crossAx val="269369728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301132800"/>
+        <c:axId val="269369728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1143,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
@@ -1148,12 +1159,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301130496"/>
+        <c:crossAx val="269367552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301229184"/>
+        <c:axId val="269371648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1189,14 +1200,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301231104"/>
+        <c:crossAx val="269381632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301231104"/>
+        <c:axId val="269381632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,14 +1217,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301229184"/>
+        <c:crossAx val="269371648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1249,7 +1259,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1437,11 +1446,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354612736"/>
-        <c:axId val="354614656"/>
+        <c:axId val="316687104"/>
+        <c:axId val="316689024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354612736"/>
+        <c:axId val="316687104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1476,20 +1485,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354614656"/>
+        <c:crossAx val="316689024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354614656"/>
+        <c:axId val="316689024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1524,14 +1532,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354612736"/>
+        <c:crossAx val="316687104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1539,7 +1546,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1630,13 +1636,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SumResultsTable" displayName="SumResultsTable" ref="A1:D1048576" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SumResultsTable" displayName="SumResultsTable" ref="A1:D1048576" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:D1048576"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Place"/>
     <tableColumn id="2" name="Count"/>
-    <tableColumn id="3" name="Percentage" dataDxfId="1"/>
-    <tableColumn id="4" name="Cummlative %" dataDxfId="0"/>
+    <tableColumn id="3" name="Percentage" dataDxfId="2"/>
+    <tableColumn id="4" name="Cummlative %" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1965,7 +1971,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2221,15 +2227,17 @@
         <v>28</v>
       </c>
       <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
+      <c r="C16" s="35">
+        <v>50</v>
+      </c>
       <c r="D16" s="36"/>
       <c r="E16" s="7"/>
       <c r="G16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="7">
-        <f>TestEndInstanceCount</f>
-        <v>50</v>
+        <f>ROCData!C2</f>
+        <v>0</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -2249,7 +2257,7 @@
         <v>39</v>
       </c>
       <c r="H17" s="7">
-        <f>C19</f>
+        <f>ROCData!D2</f>
         <v>0</v>
       </c>
       <c r="I17" s="7"/>
@@ -2261,7 +2269,9 @@
         <v>7</v>
       </c>
       <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
+      <c r="C18" s="38">
+        <v>5</v>
+      </c>
       <c r="D18" s="25"/>
       <c r="E18" s="7"/>
       <c r="G18" s="7" t="s">
@@ -2269,7 +2279,7 @@
       </c>
       <c r="H18" s="7" t="b">
         <f>TestEndInstanceCount=(H16+H17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -2280,7 +2290,9 @@
         <v>11</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="14">
+        <v>22</v>
+      </c>
       <c r="D19" s="12"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -2336,13 +2348,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="7">
+      <c r="D22" s="7" t="e">
         <f>C22/Positives</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="13" t="e">
         <f>C22/(Positives+Negatives)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="16">
         <v>33</v>
@@ -2359,9 +2371,9 @@
         <v>5</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="7" t="e">
+      <c r="D23" s="7">
         <f>C23/C18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="16">
@@ -2379,9 +2391,9 @@
         <v>10</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="7" t="e">
+      <c r="D24" s="7">
         <f>C24/C19</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="16"/>
@@ -2631,6 +2643,11 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
   </mergeCells>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",H18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -2645,7 +2662,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2853,8 +2870,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FELT/ExcelResultsComputationTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="12090" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,13 @@
     <definedName name="frNumbers">'Full Results'!$C$1</definedName>
     <definedName name="frPlaces">'Full Results'!$B$2</definedName>
     <definedName name="MemUsage">Log!$F$5</definedName>
+    <definedName name="ModifiedAUC">ROCData!$E$5</definedName>
+    <definedName name="ModifiedCutoffs">ROCData!$H$2</definedName>
     <definedName name="Negatives">Log!$H$17</definedName>
     <definedName name="PercentileSummary">Log!$F$22</definedName>
     <definedName name="PlacementSummary">Log!$B$22</definedName>
     <definedName name="Positives">Log!$H$16</definedName>
-    <definedName name="RocCurveData">ROCData!$H$2</definedName>
+    <definedName name="RocCurveData">ROCData!$I$2</definedName>
     <definedName name="RocFalsePositiveRate">RocTable[FalsePositiveRate]</definedName>
     <definedName name="RocNegatives">ROCData!$D$2</definedName>
     <definedName name="RocPlaces">ROCData!$C$8</definedName>
@@ -53,7 +55,7 @@
     <definedName name="TruePositives">Log!$H$16</definedName>
     <definedName name="Version">Log!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -92,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>FELT TOOL</t>
   </si>
@@ -308,15 +310,25 @@
   </si>
   <si>
     <t>Places</t>
+  </si>
+  <si>
+    <t>AUC Number</t>
+  </si>
+  <si>
+    <t>1 - Cutoff</t>
+  </si>
+  <si>
+    <t>AUC Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -376,7 +388,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -659,12 +671,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -744,6 +782,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,10 +803,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -841,6 +884,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -965,8 +1009,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269367552"/>
-        <c:axId val="269369728"/>
+        <c:axId val="444797696"/>
+        <c:axId val="444799616"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1091,11 +1135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269381632"/>
-        <c:axId val="269371648"/>
+        <c:axId val="444807424"/>
+        <c:axId val="444805888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269367552"/>
+        <c:axId val="444797696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,18 +1157,19 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269369728"/>
+        <c:crossAx val="444799616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269369728"/>
+        <c:axId val="444799616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,6 +1188,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
@@ -1159,12 +1205,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269367552"/>
+        <c:crossAx val="444797696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269371648"/>
+        <c:axId val="444805888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1200,14 +1246,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269381632"/>
+        <c:crossAx val="444807424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269381632"/>
+        <c:axId val="444807424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,13 +1263,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269371648"/>
+        <c:crossAx val="444805888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1254,11 +1301,12 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>ROC Chart (by 5 places)</c:v>
+              <c:v>AUC Chart for Sensitivity by a certain cutoff, AUC=0.00</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1346,13 +1394,36 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="41FF21"/>
+              </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[0]!RocSensitivity</c:f>
+              <c:f>ROCData!$H$2:$H$1048576</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048575"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ROCData!$S$2:$S$1048576</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048575"/>
@@ -1361,21 +1432,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[0]!RocFalsePositiveRate</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048575"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,11 +1502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="316687104"/>
-        <c:axId val="316689024"/>
+        <c:axId val="444922112"/>
+        <c:axId val="496963968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="316687104"/>
+        <c:axId val="444922112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1480,24 +1536,25 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>(1 - Specifity)</a:t>
+                  <a:t>(1 - Cutoff)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316689024"/>
+        <c:crossAx val="496963968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316689024"/>
+        <c:axId val="496963968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1532,13 +1589,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316687104"/>
+        <c:crossAx val="444922112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1546,6 +1604,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1559,7 +1618,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart2"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1574,7 +1633,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart4"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1585,7 +1644,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9258860" cy="6058180"/>
+    <xdr:ext cx="9285057" cy="6085821"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1612,7 +1671,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9285057" cy="6042195"/>
+    <xdr:ext cx="9299599" cy="6071279"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1649,9 +1708,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="RocTable" displayName="RocTable" ref="H1:AD1048576" totalsRowShown="0">
-  <autoFilter ref="H1:AD1048576"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="RocTable" displayName="RocTable" ref="H1:AE1048576" totalsRowShown="0">
+  <autoFilter ref="H1:AE1048576"/>
+  <tableColumns count="24">
+    <tableColumn id="24" name="1 - Cutoff"/>
     <tableColumn id="1" name="Cutoff"/>
     <tableColumn id="2" name="Observations"/>
     <tableColumn id="3" name="ActualPositives"/>
@@ -1971,29 +2031,31 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="10" width="11.28515625" customWidth="1"/>
+    <col min="3" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -2002,30 +2064,30 @@
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2040,8 +2102,8 @@
         <v>17</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2056,14 +2118,14 @@
       <c r="D5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="54">
-        <v>456123.4</v>
-      </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52">
+        <v>222456123222.39999</v>
+      </c>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="47"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2072,8 +2134,8 @@
       <c r="C6" s="40"/>
       <c r="D6" s="28"/>
       <c r="E6" s="40"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
       <c r="J6" s="40"/>
@@ -2348,11 +2410,11 @@
         <v>1</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="7" t="e">
+      <c r="D22" s="48" t="e">
         <f>C22/Positives</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="13" t="e">
+      <c r="E22" s="49" t="e">
         <f>C22/(Positives+Negatives)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2371,11 +2433,11 @@
         <v>5</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="7">
+      <c r="D23" s="48">
         <f>C23/C18</f>
         <v>0</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="16">
         <v>55</v>
       </c>
@@ -2391,11 +2453,11 @@
         <v>10</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="7">
+      <c r="D24" s="48">
         <f>C24/C19</f>
         <v>0</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="16"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2407,8 +2469,8 @@
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="13"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="16"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2420,8 +2482,8 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="13"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="16"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2433,8 +2495,8 @@
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="16"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -2446,8 +2508,8 @@
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="16"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -2459,8 +2521,8 @@
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="16"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -2472,8 +2534,8 @@
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="16"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -2485,8 +2547,8 @@
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="16"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -2498,8 +2560,8 @@
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="16"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -2508,6 +2570,13 @@
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="7">
+        <f>ModifiedAUC</f>
+        <v>0</v>
+      </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -2636,12 +2705,11 @@
       <c r="J43" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="H18">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FALSE">
@@ -2868,10 +2936,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,33 +2950,33 @@
     <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="24.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="25.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="20.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="32" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="24.42578125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.42578125" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="25.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="32" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="1"/>
+    <col min="30" max="30" width="24.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="30.42578125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2928,117 +2996,126 @@
         <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="P2" s="1">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1">
         <v>3</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0.5</v>
       </c>
       <c r="S2" s="1">
         <v>0.5</v>
       </c>
-      <c r="X2" s="1">
+      <c r="T2" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="P3" s="1">
+      <c r="Y2" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1">
         <v>3</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>0.25</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>0.75</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -3046,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -3054,18 +3131,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f>"ROC Chart (by "&amp;C8&amp;" places)"</f>
-        <v>ROC Chart (by 5 places)</v>
+        <f>"AUC Chart for Sensitivity by a certain cutoff, AUC="&amp;FIXED(ModifiedAUC,2,TRUE)</f>
+        <v>AUC Chart for Sensitivity by a certain cutoff, AUC=0.00</v>
       </c>
     </row>
   </sheetData>
